--- a/excel/eng -> eng.xlsx
+++ b/excel/eng -> eng.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">apple</t>
   </si>
@@ -150,16 +150,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B65536"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -169,6 +169,9 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -177,6 +180,9 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -185,6 +191,9 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -193,12 +202,18 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
